--- a/src/assets/LymphNodes-R1_EMQverify.xlsx
+++ b/src/assets/LymphNodes-R1_EMQverify.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ellenmq/Desktop/MedinaFlattenASCT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hpaul/Work/CNS/ccf-asct-reporter/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4947B61E-8FE6-2A49-A664-0A289CE2017E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EC1B13-09C5-2D45-8D8B-07D3F5CCEB75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4160" yWindow="460" windowWidth="22020" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3480" yWindow="740" windowWidth="30420" windowHeight="20460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LymphNodes-R1" sheetId="1" r:id="rId1"/>
@@ -89,9 +89,6 @@
     <t>Lobule</t>
   </si>
   <si>
-    <t>Subcapsular Sinus Trabecular Sinus,Macrophages,,,CD68+</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CD169+</t>
   </si>
   <si>
@@ -101,24 +98,15 @@
     <t xml:space="preserve"> CD11c+"</t>
   </si>
   <si>
-    <t>Subcapsular Sinus Trabecular Sinus,Blood Endothelial Cells,,,CD31+</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CD21+"</t>
   </si>
   <si>
-    <t>Subcapsular Sinus Trabecular Sinus,Fibroblastic Reticular Cells,,,Podoplanin+</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Desmin+</t>
   </si>
   <si>
     <t xml:space="preserve"> CD90+"</t>
   </si>
   <si>
-    <t>Subcapsular Sinus Trabecular Sinus,Lymphatic Endothelial Cells,,,Lyve-1+</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Podoplanin+</t>
   </si>
   <si>
@@ -128,294 +116,306 @@
     <t xml:space="preserve"> Prox-1+"</t>
   </si>
   <si>
-    <t>Subcapsular Sinus Trabecular Sinus,Neutrophils,,,MPO+_x000D_
+    <t xml:space="preserve"> Arteriole"</t>
+  </si>
+  <si>
+    <t>Primary Follicle</t>
+  </si>
+  <si>
+    <t>Follicular Dendritic Cells</t>
+  </si>
+  <si>
+    <t>CD21+, CD35+</t>
+  </si>
+  <si>
+    <t>Naive B-Cells</t>
+  </si>
+  <si>
+    <t>CD45RA+, CD21+, CD20+, IgM+, IgD+, CD23+,HLA DR+</t>
+  </si>
+  <si>
+    <t>Mature B-Cells</t>
+  </si>
+  <si>
+    <t>CD19+, CD20+, CD79a+,CD45RO+</t>
+  </si>
+  <si>
+    <t>Macrophages</t>
+  </si>
+  <si>
+    <t>CD11b+, CD169+</t>
+  </si>
+  <si>
+    <t>Fibroblastic Reticular Cells</t>
+  </si>
+  <si>
+    <t>Podoplanin+, Desmin+, Collagen I+, Smooth Muscle Actin+</t>
+  </si>
+  <si>
+    <t>Secondary Follicle</t>
+  </si>
+  <si>
+    <t>Germinal Center</t>
+  </si>
+  <si>
+    <t>Light Zone</t>
+  </si>
+  <si>
+    <t>HLA DR+, Podoplanin+, CD21+, CD23+, CD35+</t>
+  </si>
+  <si>
+    <t>Centrocytes</t>
+  </si>
+  <si>
+    <t>CD21+, CD10+, Ki67+, CXCR5+</t>
+  </si>
+  <si>
+    <t>T Follicular Helper Cells</t>
+  </si>
+  <si>
+    <t>CD4+, CXCR5+, CD69+, CD10+, PD-1+</t>
+  </si>
+  <si>
+    <t>Tfreg cells</t>
+  </si>
+  <si>
+    <t>CD4+, FOXP3+, PD-1+</t>
+  </si>
+  <si>
+    <t>Tingible Body Macrophages</t>
+  </si>
+  <si>
+    <t>CD68+, CD169+</t>
+  </si>
+  <si>
+    <t>Plasmablast</t>
+  </si>
+  <si>
+    <t>CD138+, CD79a+</t>
+  </si>
+  <si>
+    <t>Dark Zone</t>
+  </si>
+  <si>
+    <t>Centroblasts</t>
+  </si>
+  <si>
+    <t>CXCR4+, HLA-DR+, CD10+, CD19+</t>
+  </si>
+  <si>
+    <t>Reticular Cells</t>
+  </si>
+  <si>
+    <t>Mantle Zone</t>
+  </si>
+  <si>
+    <t>NaÔøΩve B Cells</t>
+  </si>
+  <si>
+    <t>HLA DR+, IgM+, IgD+, CD20+, CD19+, CD45RA+, CD79a+, CD21+</t>
+  </si>
+  <si>
+    <t>CD169+, CD11b+</t>
+  </si>
+  <si>
+    <t>Memory B Cells</t>
+  </si>
+  <si>
+    <t>CD45+, CD20+, CD19+</t>
+  </si>
+  <si>
+    <t>T Helper Cells</t>
+  </si>
+  <si>
+    <t>CD3+, CD4+</t>
+  </si>
+  <si>
+    <t>Marginal Zone</t>
+  </si>
+  <si>
+    <t>CD45+, CD20+, CD19+, CD27+</t>
+  </si>
+  <si>
+    <t>Marginal B Cells</t>
+  </si>
+  <si>
+    <t>IgM+, CD20+, CD19+, CD21+, CD9+, CD45RA+</t>
+  </si>
+  <si>
+    <t>Interfollicular Cortex</t>
+  </si>
+  <si>
+    <t>T Cytotoxic Cells</t>
+  </si>
+  <si>
+    <t>CD3+, CD8+</t>
+  </si>
+  <si>
+    <t>NK Cells</t>
+  </si>
+  <si>
+    <t>CD56+, CD57+</t>
+  </si>
+  <si>
+    <t>Podoplanin+, CD90+, Desmin+, Smooth Muscle Actin+</t>
+  </si>
+  <si>
+    <t>Dendritic Cells</t>
+  </si>
+  <si>
+    <t>CD11b+, CD68+</t>
+  </si>
+  <si>
+    <t>Paracortex</t>
+  </si>
+  <si>
+    <t>Paracorticol Sinus</t>
+  </si>
+  <si>
+    <t>Smooth Muscle Actin+, Vimentin+, CD90+, Podoplanin+</t>
+  </si>
+  <si>
+    <t>Histocytes</t>
+  </si>
+  <si>
+    <t>CD68+, CD169-</t>
+  </si>
+  <si>
+    <t>Arterioles Capillaries</t>
+  </si>
+  <si>
+    <t>CD31+, CD34+, CD21+</t>
+  </si>
+  <si>
+    <t>High Endothelial Cells</t>
+  </si>
+  <si>
+    <t>Blood Endothelial Cells, Smooth Muscle Cells</t>
+  </si>
+  <si>
+    <t>CD31+, Smooth Actin Muscle+, Collagen IV+</t>
+  </si>
+  <si>
+    <t>Paracortex Parenchyme</t>
+  </si>
+  <si>
+    <t>Plasmacytoid Dendritic Cells</t>
+  </si>
+  <si>
+    <t>CD4+, CD68+</t>
+  </si>
+  <si>
+    <t>Interdigitating Dendritic Cells</t>
+  </si>
+  <si>
+    <t>CD4+, S100+</t>
+  </si>
+  <si>
+    <t>CD4+, CD3+</t>
+  </si>
+  <si>
+    <t>CD8+, CD3+</t>
+  </si>
+  <si>
+    <t>Plasma Cells</t>
+  </si>
+  <si>
+    <t>CD138+</t>
+  </si>
+  <si>
+    <t>B Cells</t>
+  </si>
+  <si>
+    <t>CD20+, CD79a+</t>
+  </si>
+  <si>
+    <t>Medulla</t>
+  </si>
+  <si>
+    <t>Medullary Sinus</t>
+  </si>
+  <si>
+    <t>Lymphocytic Sinus</t>
+  </si>
+  <si>
+    <t>CD68+, CD169+, CD11b+</t>
+  </si>
+  <si>
+    <t>Podoplanin+, Collagen I+, Desmin+</t>
+  </si>
+  <si>
+    <t>Lymphocytic Endothelial Cells</t>
+  </si>
+  <si>
+    <t>Lyve-1+, Podoplanin+, Prox-1+</t>
+  </si>
+  <si>
+    <t>Medullary Cord</t>
+  </si>
+  <si>
+    <t>Lymphocytic Tissue</t>
+  </si>
+  <si>
+    <t>T Memory Cells</t>
+  </si>
+  <si>
+    <t>B-Cells</t>
+  </si>
+  <si>
+    <t>CD45RO+, CD20+</t>
+  </si>
+  <si>
+    <t>CD11b+, CD169-</t>
+  </si>
+  <si>
+    <t>Immunoblast</t>
+  </si>
+  <si>
+    <t>CD11c+, HLA-DR+</t>
+  </si>
+  <si>
+    <t>Venule, Arteriole</t>
+  </si>
+  <si>
+    <t>CD31+, CD34+</t>
+  </si>
+  <si>
+    <t>Hilum</t>
+  </si>
+  <si>
+    <t>Efferent Lymphatics</t>
+  </si>
+  <si>
+    <t>Artery, Vein</t>
+  </si>
+  <si>
+    <t>CXCL12+, Collagen IV+, Laminin+</t>
+  </si>
+  <si>
+    <t>CD20+, CXCR4+, CD79a+</t>
+  </si>
+  <si>
+    <t>Subcapsular Sinus Trabecular Sinus,Blood Endothelial Cells</t>
+  </si>
+  <si>
+    <t>Subcapsular Sinus Trabecular Sinus,Macrophages</t>
+  </si>
+  <si>
+    <t>Subcapsular Sinus Trabecular Sinus,Lymphatic Endothelial Cells</t>
+  </si>
+  <si>
+    <t>Subcapsular Sinus Trabecular Sinus,Fibroblastic Reticular Cells</t>
+  </si>
+  <si>
+    <t>Subcapsular Sinus Trabecular Sinus,Neutrophils,
 Lobule,Venule</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Arteriole"</t>
-  </si>
-  <si>
-    <t>Primary Follicle</t>
-  </si>
-  <si>
-    <t>Follicular Dendritic Cells</t>
-  </si>
-  <si>
-    <t>CD21+, CD35+</t>
-  </si>
-  <si>
-    <t>Naive B-Cells</t>
-  </si>
-  <si>
-    <t>CD45RA+, CD21+, CD20+, IgM+, IgD+, CD23+,HLA DR+</t>
-  </si>
-  <si>
-    <t>Mature B-Cells</t>
-  </si>
-  <si>
-    <t>CD19+, CD20+, CD79a+,CD45RO+</t>
-  </si>
-  <si>
-    <t>Macrophages</t>
-  </si>
-  <si>
-    <t>CD11b+, CD169+</t>
-  </si>
-  <si>
-    <t>Fibroblastic Reticular Cells</t>
-  </si>
-  <si>
-    <t>Podoplanin+, Desmin+, Collagen I+, Smooth Muscle Actin+</t>
-  </si>
-  <si>
-    <t>Secondary Follicle</t>
-  </si>
-  <si>
-    <t>Germinal Center</t>
-  </si>
-  <si>
-    <t>Light Zone</t>
-  </si>
-  <si>
-    <t>HLA DR+, Podoplanin+, CD21+, CD23+, CD35+</t>
-  </si>
-  <si>
-    <t>Centrocytes</t>
-  </si>
-  <si>
-    <t>CD21+, CD10+, Ki67+, CXCR5+</t>
-  </si>
-  <si>
-    <t>T Follicular Helper Cells</t>
-  </si>
-  <si>
-    <t>CD4+, CXCR5+, CD69+, CD10+, PD-1+</t>
-  </si>
-  <si>
-    <t>Tfreg cells</t>
-  </si>
-  <si>
-    <t>CD4+, FOXP3+, PD-1+</t>
-  </si>
-  <si>
-    <t>Tingible Body Macrophages</t>
-  </si>
-  <si>
-    <t>CD68+, CD169+</t>
-  </si>
-  <si>
-    <t>Plasmablast</t>
-  </si>
-  <si>
-    <t>CD138+, CD79a+</t>
-  </si>
-  <si>
-    <t>Dark Zone</t>
-  </si>
-  <si>
-    <t>Centroblasts</t>
-  </si>
-  <si>
-    <t>CXCR4+, HLA-DR+, CD10+, CD19+</t>
-  </si>
-  <si>
-    <t>Reticular Cells</t>
-  </si>
-  <si>
-    <t>Mantle Zone</t>
-  </si>
-  <si>
-    <t>NaÔøΩve B Cells</t>
-  </si>
-  <si>
-    <t>HLA DR+, IgM+, IgD+, CD20+, CD19+, CD45RA+, CD79a+, CD21+</t>
-  </si>
-  <si>
-    <t>CD169+, CD11b+</t>
-  </si>
-  <si>
-    <t>Memory B Cells</t>
-  </si>
-  <si>
-    <t>CD45+, CD20+, CD19+</t>
-  </si>
-  <si>
-    <t>T Helper Cells</t>
-  </si>
-  <si>
-    <t>CD3+, CD4+</t>
-  </si>
-  <si>
-    <t>Marginal Zone</t>
-  </si>
-  <si>
-    <t>CD45+, CD20+, CD19+, CD27+</t>
-  </si>
-  <si>
-    <t>Marginal B Cells</t>
-  </si>
-  <si>
-    <t>IgM+, CD20+, CD19+, CD21+, CD9+, CD45RA+</t>
-  </si>
-  <si>
-    <t>Interfollicular Cortex</t>
-  </si>
-  <si>
-    <t>T Cytotoxic Cells</t>
-  </si>
-  <si>
-    <t>CD3+, CD8+</t>
-  </si>
-  <si>
-    <t>NK Cells</t>
-  </si>
-  <si>
-    <t>CD56+, CD57+</t>
-  </si>
-  <si>
-    <t>Podoplanin+, CD90+, Desmin+, Smooth Muscle Actin+</t>
-  </si>
-  <si>
-    <t>Dendritic Cells</t>
-  </si>
-  <si>
-    <t>CD11b+, CD68+</t>
-  </si>
-  <si>
-    <t>Paracortex</t>
-  </si>
-  <si>
-    <t>Paracorticol Sinus</t>
-  </si>
-  <si>
-    <t>Smooth Muscle Actin+, Vimentin+, CD90+, Podoplanin+</t>
-  </si>
-  <si>
-    <t>Histocytes</t>
-  </si>
-  <si>
-    <t>CD68+, CD169-</t>
-  </si>
-  <si>
-    <t>Arterioles Capillaries</t>
-  </si>
-  <si>
-    <t>CD31+, CD34+, CD21+</t>
-  </si>
-  <si>
-    <t>High Endothelial Cells</t>
-  </si>
-  <si>
-    <t>Blood Endothelial Cells, Smooth Muscle Cells</t>
-  </si>
-  <si>
-    <t>CD31+, Smooth Actin Muscle+, Collagen IV+</t>
-  </si>
-  <si>
-    <t>Paracortex Parenchyme</t>
-  </si>
-  <si>
-    <t>Plasmacytoid Dendritic Cells</t>
-  </si>
-  <si>
-    <t>CD4+, CD68+</t>
-  </si>
-  <si>
-    <t>Interdigitating Dendritic Cells</t>
-  </si>
-  <si>
-    <t>CD4+, S100+</t>
-  </si>
-  <si>
-    <t>CD4+, CD3+</t>
-  </si>
-  <si>
-    <t>CD8+, CD3+</t>
-  </si>
-  <si>
-    <t>Plasma Cells</t>
-  </si>
-  <si>
-    <t>CD138+</t>
-  </si>
-  <si>
-    <t>B Cells</t>
-  </si>
-  <si>
-    <t>CD20+, CD79a+</t>
-  </si>
-  <si>
-    <t>Medulla</t>
-  </si>
-  <si>
-    <t>Medullary Sinus</t>
-  </si>
-  <si>
-    <t>Lymphocytic Sinus</t>
-  </si>
-  <si>
-    <t>CD68+, CD169+, CD11b+</t>
-  </si>
-  <si>
-    <t>Podoplanin+, Collagen I+, Desmin+</t>
-  </si>
-  <si>
-    <t>Lymphocytic Endothelial Cells</t>
-  </si>
-  <si>
-    <t>Lyve-1+, Podoplanin+, Prox-1+</t>
-  </si>
-  <si>
-    <t>Medullary Cord</t>
-  </si>
-  <si>
-    <t>Lymphocytic Tissue</t>
-  </si>
-  <si>
-    <t>T Memory Cells</t>
-  </si>
-  <si>
-    <t>B-Cells</t>
-  </si>
-  <si>
-    <t>CD45RO+, CD20+</t>
-  </si>
-  <si>
-    <t>CD11b+, CD169-</t>
-  </si>
-  <si>
-    <t>Immunoblast</t>
-  </si>
-  <si>
-    <t>CD11c+, HLA-DR+</t>
-  </si>
-  <si>
-    <t>Venule, Arteriole</t>
-  </si>
-  <si>
-    <t>CD31+, CD34+</t>
-  </si>
-  <si>
-    <t>Hilum</t>
-  </si>
-  <si>
-    <t>Efferent Lymphatics</t>
-  </si>
-  <si>
-    <t>Artery, Vein</t>
-  </si>
-  <si>
-    <t>CXCL12+, Collagen IV+, Laminin+</t>
-  </si>
-  <si>
-    <t>CD20+, CXCR4+, CD79a+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1255,11 +1255,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D23" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="65.1640625" customWidth="1"/>
@@ -1270,7 +1270,7 @@
     <col min="7" max="7" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1383,74 +1383,74 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
       <c r="B8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>21</v>
       </c>
-      <c r="E8" t="s">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D11" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="12" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" t="s">
         <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="34">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -1462,432 +1462,432 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
       <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
         <v>34</v>
       </c>
-      <c r="C13" t="s">
+      <c r="F15" t="s">
         <v>35</v>
       </c>
-      <c r="F13" t="s">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="F16" t="s">
         <v>37</v>
       </c>
-      <c r="F14" t="s">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="F17" t="s">
         <v>39</v>
       </c>
-      <c r="F15" t="s">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="C18" t="s">
         <v>41</v>
       </c>
-      <c r="F16" t="s">
+      <c r="D18" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="E18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" t="s">
         <v>43</v>
       </c>
-      <c r="F17" t="s">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="F19" t="s">
         <v>45</v>
       </c>
-      <c r="C18" t="s">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" t="s">
         <v>46</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F20" t="s">
         <v>47</v>
       </c>
-      <c r="E18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" t="s">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="F21" t="s">
         <v>49</v>
       </c>
-      <c r="F19" t="s">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="F22" t="s">
         <v>51</v>
       </c>
-      <c r="F20" t="s">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="F23" t="s">
         <v>53</v>
       </c>
-      <c r="F21" t="s">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="E24" t="s">
         <v>55</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F24" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" t="s">
         <v>57</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="E26" t="s">
         <v>59</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F26" t="s">
         <v>60</v>
       </c>
-      <c r="F24" t="s">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" t="s">
         <v>62</v>
       </c>
-      <c r="F25" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="F28" t="s">
         <v>63</v>
       </c>
-      <c r="E26" t="s">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" t="s">
         <v>64</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F29" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" t="s">
-        <v>63</v>
-      </c>
-      <c r="E27" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
         <v>41</v>
       </c>
-      <c r="F27" t="s">
+      <c r="D30" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="E30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" t="s">
         <v>67</v>
       </c>
-      <c r="F28" t="s">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="E31" t="s">
         <v>69</v>
       </c>
-      <c r="F29" t="s">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="C32" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" t="s">
         <v>71</v>
       </c>
-      <c r="E30" t="s">
-        <v>67</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="F33" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" t="s">
         <v>73</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F34" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" t="s">
         <v>75</v>
       </c>
-      <c r="C32" t="s">
-        <v>69</v>
-      </c>
-      <c r="F32" t="s">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="C36" t="s">
         <v>76</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F36" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" t="s">
         <v>78</v>
       </c>
-      <c r="F34" t="s">
+      <c r="C37" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" t="s">
-        <v>62</v>
-      </c>
-      <c r="F35" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" t="s">
-        <v>81</v>
-      </c>
-      <c r="F36" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" t="s">
-        <v>84</v>
       </c>
       <c r="D37" t="s">
         <v>14</v>
@@ -1896,385 +1896,385 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>18</v>
       </c>
       <c r="B38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" t="s">
         <v>83</v>
-      </c>
-      <c r="C38" t="s">
-        <v>84</v>
-      </c>
-      <c r="D38" t="s">
-        <v>43</v>
-      </c>
-      <c r="F38" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" t="s">
-        <v>84</v>
-      </c>
-      <c r="D39" t="s">
-        <v>86</v>
-      </c>
-      <c r="F39" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40" t="s">
-        <v>88</v>
       </c>
       <c r="D40" t="s">
         <v>9</v>
       </c>
       <c r="F40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" t="s">
+        <v>86</v>
+      </c>
+      <c r="F41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
-        <v>18</v>
-      </c>
-      <c r="B41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="F42" t="s">
         <v>90</v>
       </c>
-      <c r="D41" t="s">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" t="s">
         <v>91</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F43" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
-        <v>18</v>
-      </c>
-      <c r="B42" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" t="s">
+        <v>64</v>
+      </c>
+      <c r="F44" t="s">
         <v>93</v>
       </c>
-      <c r="D42" t="s">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" t="s">
+        <v>71</v>
+      </c>
+      <c r="F45" t="s">
         <v>94</v>
       </c>
-      <c r="F42" t="s">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
-        <v>18</v>
-      </c>
-      <c r="B43" t="s">
-        <v>83</v>
-      </c>
-      <c r="C43" t="s">
-        <v>93</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="F46" t="s">
         <v>96</v>
       </c>
-      <c r="F43" t="s">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" t="s">
-        <v>18</v>
-      </c>
-      <c r="B44" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" t="s">
-        <v>93</v>
-      </c>
-      <c r="D44" t="s">
-        <v>69</v>
-      </c>
-      <c r="F44" t="s">
+      <c r="F47" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45" t="s">
-        <v>18</v>
-      </c>
-      <c r="B45" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45" t="s">
-        <v>93</v>
-      </c>
-      <c r="D45" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" t="s">
+        <v>101</v>
+      </c>
+      <c r="E48" t="s">
+        <v>81</v>
+      </c>
+      <c r="F48" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" t="s">
+        <v>100</v>
+      </c>
+      <c r="D49" t="s">
+        <v>101</v>
+      </c>
+      <c r="E49" t="s">
+        <v>57</v>
+      </c>
+      <c r="F49" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E50" t="s">
+        <v>104</v>
+      </c>
+      <c r="F50" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" t="s">
+        <v>107</v>
+      </c>
+      <c r="E51" t="s">
+        <v>108</v>
+      </c>
+      <c r="F51" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" t="s">
+        <v>106</v>
+      </c>
+      <c r="D52" t="s">
+        <v>107</v>
+      </c>
+      <c r="E52" t="s">
+        <v>95</v>
+      </c>
+      <c r="F52" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53" t="s">
+        <v>107</v>
+      </c>
+      <c r="E53" t="s">
+        <v>109</v>
+      </c>
+      <c r="F53" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" t="s">
+        <v>106</v>
+      </c>
+      <c r="D54" t="s">
+        <v>107</v>
+      </c>
+      <c r="E54" t="s">
+        <v>64</v>
+      </c>
+      <c r="F54" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" t="s">
+        <v>106</v>
+      </c>
+      <c r="D55" t="s">
+        <v>107</v>
+      </c>
+      <c r="E55" t="s">
+        <v>36</v>
+      </c>
+      <c r="F55" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" t="s">
+        <v>106</v>
+      </c>
+      <c r="D56" t="s">
+        <v>107</v>
+      </c>
+      <c r="E56" t="s">
+        <v>112</v>
+      </c>
+      <c r="F56" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57" t="s">
+        <v>99</v>
+      </c>
+      <c r="C57" t="s">
+        <v>106</v>
+      </c>
+      <c r="D57" t="s">
+        <v>107</v>
+      </c>
+      <c r="E57" t="s">
         <v>76</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" t="s">
-        <v>18</v>
-      </c>
-      <c r="B46" t="s">
-        <v>83</v>
-      </c>
-      <c r="C46" t="s">
-        <v>93</v>
-      </c>
-      <c r="D46" t="s">
-        <v>100</v>
-      </c>
-      <c r="F46" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" t="s">
-        <v>18</v>
-      </c>
-      <c r="B47" t="s">
-        <v>83</v>
-      </c>
-      <c r="C47" t="s">
-        <v>93</v>
-      </c>
-      <c r="D47" t="s">
-        <v>102</v>
-      </c>
-      <c r="F47" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" t="s">
-        <v>18</v>
-      </c>
-      <c r="B48" t="s">
-        <v>104</v>
-      </c>
-      <c r="C48" t="s">
-        <v>105</v>
-      </c>
-      <c r="D48" t="s">
-        <v>106</v>
-      </c>
-      <c r="E48" t="s">
-        <v>86</v>
-      </c>
-      <c r="F48" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" t="s">
-        <v>18</v>
-      </c>
-      <c r="B49" t="s">
-        <v>104</v>
-      </c>
-      <c r="C49" t="s">
-        <v>105</v>
-      </c>
-      <c r="D49" t="s">
-        <v>106</v>
-      </c>
-      <c r="E49" t="s">
-        <v>62</v>
-      </c>
-      <c r="F49" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" t="s">
-        <v>18</v>
-      </c>
-      <c r="B50" t="s">
-        <v>104</v>
-      </c>
-      <c r="C50" t="s">
-        <v>105</v>
-      </c>
-      <c r="D50" t="s">
-        <v>106</v>
-      </c>
-      <c r="E50" t="s">
-        <v>109</v>
-      </c>
-      <c r="F50" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" t="s">
-        <v>18</v>
-      </c>
-      <c r="B51" t="s">
-        <v>104</v>
-      </c>
-      <c r="C51" t="s">
-        <v>111</v>
-      </c>
-      <c r="D51" t="s">
-        <v>112</v>
-      </c>
-      <c r="E51" t="s">
-        <v>113</v>
-      </c>
-      <c r="F51" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" t="s">
-        <v>18</v>
-      </c>
-      <c r="B52" t="s">
-        <v>104</v>
-      </c>
-      <c r="C52" t="s">
-        <v>111</v>
-      </c>
-      <c r="D52" t="s">
-        <v>112</v>
-      </c>
-      <c r="E52" t="s">
-        <v>100</v>
-      </c>
-      <c r="F52" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" t="s">
-        <v>18</v>
-      </c>
-      <c r="B53" t="s">
-        <v>104</v>
-      </c>
-      <c r="C53" t="s">
-        <v>111</v>
-      </c>
-      <c r="D53" t="s">
-        <v>112</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="C58" t="s">
         <v>114</v>
-      </c>
-      <c r="F53" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" t="s">
-        <v>18</v>
-      </c>
-      <c r="B54" t="s">
-        <v>104</v>
-      </c>
-      <c r="C54" t="s">
-        <v>111</v>
-      </c>
-      <c r="D54" t="s">
-        <v>112</v>
-      </c>
-      <c r="E54" t="s">
-        <v>69</v>
-      </c>
-      <c r="F54" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" t="s">
-        <v>18</v>
-      </c>
-      <c r="B55" t="s">
-        <v>104</v>
-      </c>
-      <c r="C55" t="s">
-        <v>111</v>
-      </c>
-      <c r="D55" t="s">
-        <v>112</v>
-      </c>
-      <c r="E55" t="s">
-        <v>41</v>
-      </c>
-      <c r="F55" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" t="s">
-        <v>18</v>
-      </c>
-      <c r="B56" t="s">
-        <v>104</v>
-      </c>
-      <c r="C56" t="s">
-        <v>111</v>
-      </c>
-      <c r="D56" t="s">
-        <v>112</v>
-      </c>
-      <c r="E56" t="s">
-        <v>117</v>
-      </c>
-      <c r="F56" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" t="s">
-        <v>18</v>
-      </c>
-      <c r="B57" t="s">
-        <v>104</v>
-      </c>
-      <c r="C57" t="s">
-        <v>111</v>
-      </c>
-      <c r="D57" t="s">
-        <v>112</v>
-      </c>
-      <c r="E57" t="s">
-        <v>81</v>
-      </c>
-      <c r="F57" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" t="s">
-        <v>18</v>
-      </c>
-      <c r="B58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C58" t="s">
-        <v>119</v>
       </c>
       <c r="D58" t="s">
         <v>8</v>
@@ -2283,15 +2283,15 @@
         <v>9</v>
       </c>
       <c r="F58" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B59" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C59" t="s">
         <v>13</v>
@@ -2300,15 +2300,15 @@
         <v>14</v>
       </c>
       <c r="F59" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B60" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C60" t="s">
         <v>13</v>
@@ -2320,12 +2320,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B61" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C61" t="s">
         <v>8</v>
